--- a/FR - Frame & Body/Cost/Cost_Frame.xlsx
+++ b/FR - Frame & Body/Cost/Cost_Frame.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE1BBAB-2E20-4C8C-B93A-60EEB725F3C5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9D192F-E208-4AE8-A119-B960E405E905}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -830,14 +830,14 @@
     <numFmt numFmtId="166" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00,;_-[$$-409]* \-??_ ;_-@_ "/>
-    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="175" formatCode="0.000"/>
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="0.0E+00"/>
+    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00,;_-[$$-409]* \-??_ ;_-@_ "/>
+    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="174" formatCode="0.000E+00"/>
+    <numFmt numFmtId="175" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -1422,12 +1422,12 @@
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="7" fillId="2" borderId="6">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="7" fillId="2" borderId="6">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1442,7 +1442,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1452,11 +1452,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
@@ -1520,14 +1520,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1571,7 +1571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1597,11 +1597,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="173" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="172" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="5" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1624,18 +1624,18 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="8" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="172" fontId="12" fillId="8" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="37" fontId="12" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="12" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="12" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1657,18 +1657,18 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="172" fontId="12" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="37" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="172" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="12" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1695,10 +1695,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="5" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
@@ -2528,12 +2528,12 @@
   </sheetPr>
   <dimension ref="A1:O158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
       <selection pane="topRight" activeCell="H10" sqref="H10"/>
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -5146,8 +5146,8 @@
   </sheetPr>
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="99" t="s">
         <v>132</v>
       </c>
       <c r="F2" s="63"/>
@@ -6132,6 +6132,7 @@
     <hyperlink ref="B11" location="FR_01002" display="Straight round steel tubing" xr:uid="{67BF6903-2881-4F14-8D93-935AB83DE452}"/>
     <hyperlink ref="B12" location="FR_01003" display="Anti-intusion plate" xr:uid="{5F52F1BE-0B8B-423C-8182-3D6A517A5A0B}"/>
     <hyperlink ref="B13" location="'FR 01004'!A1" display="Sleeved joint" xr:uid="{0D45B743-6FDE-4216-97C7-56AFD8F90F3D}"/>
+    <hyperlink ref="E2" location="BOM!A1" display="Back to BOM" xr:uid="{3F3FAB0B-F1C9-4F0E-A958-C9F87CB337C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6153,7 +6154,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6200,7 +6201,7 @@
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="99" t="s">
         <v>132</v>
       </c>
       <c r="H2" s="63"/>
@@ -6785,6 +6786,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" location="BR_A0001" display="BR_A0001" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="G2" location="BOM!A1" display="Back to BOM" xr:uid="{D313C253-B34A-478B-B5A7-B4720C37065B}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6806,14 +6808,15 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="14.796875" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="17.53125" customWidth="1"/>
     <col min="15" max="15" width="3.1328125" customWidth="1"/>
   </cols>
@@ -6846,7 +6849,7 @@
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="99" t="s">
         <v>132</v>
       </c>
       <c r="H2" s="63"/>
@@ -7602,6 +7605,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" location="BR_A0001" display="BR_A0001" xr:uid="{817F69F5-D9F5-4DAD-B128-B61D755CFBF0}"/>
+    <hyperlink ref="G2" location="BOM!A1" display="Back to BOM" xr:uid="{CF9BDBA3-E573-4330-801F-A90429EEF56D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7616,13 +7620,14 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="23.59765625" customWidth="1"/>
     <col min="3" max="3" width="19.19921875" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" customWidth="1"/>
     <col min="9" max="9" width="16.53125" customWidth="1"/>
     <col min="15" max="15" width="3.1328125" customWidth="1"/>
   </cols>
@@ -7655,7 +7660,7 @@
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="99" t="s">
         <v>132</v>
       </c>
       <c r="H2" s="63"/>
@@ -8161,6 +8166,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" location="BR_A0001" display="BR_A0001" xr:uid="{CD27444F-223E-4B16-9C22-33ADBCCED2B4}"/>
+    <hyperlink ref="G2" location="BOM!A1" display="Back to BOM" xr:uid="{0C413356-3020-48B0-864E-8558288A39D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8174,13 +8180,14 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="22.59765625" customWidth="1"/>
     <col min="3" max="3" width="17.73046875" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" customWidth="1"/>
     <col min="9" max="9" width="18.06640625" customWidth="1"/>
     <col min="15" max="15" width="3.1328125" customWidth="1"/>
   </cols>
@@ -8213,7 +8220,7 @@
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="99" t="s">
         <v>132</v>
       </c>
       <c r="H2" s="63"/>
@@ -8562,7 +8569,7 @@
       <c r="N14" s="27"/>
       <c r="O14" s="69"/>
     </row>
-    <row r="15" spans="1:15" s="28" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" s="28" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="94">
         <v>10</v>
       </c>
@@ -8624,7 +8631,7 @@
       <c r="N16" s="63"/>
       <c r="O16" s="69"/>
     </row>
-    <row r="17" spans="1:15" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" s="18" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="94">
         <v>30</v>
       </c>
@@ -8731,6 +8738,7 @@
   <hyperlinks>
     <hyperlink ref="B4" location="BR_A0001" display="BR_A0001" xr:uid="{3D8EE626-6780-4899-8924-E7CCF5E9EDAF}"/>
     <hyperlink ref="E3" location="'dFR 01004'!A1" display="Drawing" xr:uid="{F73D190D-835F-47A1-A266-7591A15311F8}"/>
+    <hyperlink ref="G2" location="BOM!A1" display="Back to BOM" xr:uid="{2495BF71-7C2A-4F4F-91D6-C09C9451031E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FR - Frame & Body/Cost/Cost_Frame.xlsx
+++ b/FR - Frame & Body/Cost/Cost_Frame.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9D192F-E208-4AE8-A119-B960E405E905}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBD06A4-5713-4930-9201-EC0AB764384E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,12 +59,12 @@
     <definedName name="BR_01001_q">'FR 01001'!$N$3</definedName>
     <definedName name="BR_01001_t">'FR 01001'!#REF!</definedName>
     <definedName name="BR_A0001">'FR A0001'!$B$5</definedName>
-    <definedName name="BR_A0001_f">'FR A0001'!$J$29</definedName>
+    <definedName name="BR_A0001_f">'FR A0001'!$J$31</definedName>
     <definedName name="BR_A0001_m">'FR A0001'!$N$18</definedName>
-    <definedName name="BR_A0001_p">'FR A0001'!$I$24</definedName>
+    <definedName name="BR_A0001_p">'FR A0001'!$I$26</definedName>
     <definedName name="BR_A0001_pa">'FR A0001'!$E$14</definedName>
     <definedName name="BR_A0001_q">'FR A0001'!$N$3</definedName>
-    <definedName name="BR_A0001_t">'FR A0001'!$I$34</definedName>
+    <definedName name="BR_A0001_t">'FR A0001'!$I$36</definedName>
     <definedName name="btgrvf">#REF!</definedName>
     <definedName name="btvfcds">#REF!</definedName>
     <definedName name="Car" localSheetId="1">BOM!$B$4</definedName>
@@ -97,11 +97,11 @@
     <definedName name="EL_02002_q">'FR 01001'!#REF!</definedName>
     <definedName name="EL_02002_t">'FR 01001'!#REF!</definedName>
     <definedName name="EL_A0001">'FR A0001'!$B$5</definedName>
-    <definedName name="EL_A0001_f">'FR A0001'!$J$29</definedName>
+    <definedName name="EL_A0001_f">'FR A0001'!$J$31</definedName>
     <definedName name="El_A0001_m">'FR A0001'!$N$18</definedName>
-    <definedName name="EL_A0001_p">'FR A0001'!$I$24</definedName>
+    <definedName name="EL_A0001_p">'FR A0001'!$I$26</definedName>
     <definedName name="EL_A0001_q">'FR A0001'!$N$3</definedName>
-    <definedName name="EL_A0001_t">'FR A0001'!$I$34</definedName>
+    <definedName name="EL_A0001_t">'FR A0001'!$I$36</definedName>
     <definedName name="EL_A0002">'FR A0001'!#REF!</definedName>
     <definedName name="EL_A0002_f">'FR A0001'!#REF!</definedName>
     <definedName name="EL_A0002_m">'FR A0001'!#REF!</definedName>
@@ -134,12 +134,12 @@
     <definedName name="FR_01004_q">'FR 01004'!$N$3</definedName>
     <definedName name="FR_01004_t">'FR 01004'!#REF!</definedName>
     <definedName name="FR_A0001">'FR A0001'!$B$5</definedName>
-    <definedName name="FR_A0001_f">'FR A0001'!$J$29</definedName>
+    <definedName name="FR_A0001_f">'FR A0001'!$J$31</definedName>
     <definedName name="FR_A0001_m">'FR A0001'!$N$18</definedName>
-    <definedName name="FR_A0001_p">'FR A0001'!$I$24</definedName>
+    <definedName name="FR_A0001_p">'FR A0001'!$I$26</definedName>
     <definedName name="FR_A0001_pa">'FR A0001'!$E$14</definedName>
     <definedName name="FR_A0001_q">'FR A0001'!$N$3</definedName>
-    <definedName name="FR_A0001_t">'FR A0001'!$I$34</definedName>
+    <definedName name="FR_A0001_t">'FR A0001'!$I$36</definedName>
     <definedName name="gbvf">#REF!</definedName>
     <definedName name="gbvfcd">#REF!</definedName>
     <definedName name="gr">#REF!</definedName>
@@ -187,12 +187,12 @@
     <definedName name="zer">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">BOM!$A$1:$N$12</definedName>
   </definedNames>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="179017" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="197">
   <si>
     <t>University</t>
   </si>
@@ -818,6 +818,15 @@
   </si>
   <si>
     <t>m^2</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Ratchet &lt;= 25.4 mm</t>
+  </si>
+  <si>
+    <t>Reaction Tool &lt;= 25.4 mm</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1075,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1418,6 +1427,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1434,7 +1497,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1700,6 +1763,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="30" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="31" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2676,7 +2755,7 @@
       <c r="G7" s="116"/>
       <c r="H7" s="118">
         <f t="shared" ref="H7:H11" si="0">SUM(J7:M7)</f>
-        <v>501.97083333333342</v>
+        <v>639.85083333333341</v>
       </c>
       <c r="I7" s="119">
         <f>FR_A0001_q</f>
@@ -2688,11 +2767,11 @@
       </c>
       <c r="K7" s="120">
         <f>BR_A0001_p</f>
-        <v>401.05750000000006</v>
+        <v>538.61749999999995</v>
       </c>
       <c r="L7" s="120">
         <f>BR_A0001_f</f>
-        <v>2.8800000000000003</v>
+        <v>3.2</v>
       </c>
       <c r="M7" s="120">
         <f>BR_A0001_t</f>
@@ -2700,7 +2779,7 @@
       </c>
       <c r="N7" s="121">
         <f t="shared" ref="N7:N11" si="1">H7*I7</f>
-        <v>501.97083333333342</v>
+        <v>639.85083333333341</v>
       </c>
       <c r="O7" s="122"/>
     </row>
@@ -2888,11 +2967,11 @@
       </c>
       <c r="K12" s="106">
         <f>SUMPRODUCT($I7:$I11,K7:K11)</f>
-        <v>613.91350000000011</v>
+        <v>751.47350000000006</v>
       </c>
       <c r="L12" s="106">
         <f>SUMPRODUCT($I7:$I11,L7:L11)</f>
-        <v>2.8800000000000003</v>
+        <v>3.2</v>
       </c>
       <c r="M12" s="106">
         <f>SUMPRODUCT($I7:$I11,M7:M11)</f>
@@ -2900,7 +2979,7 @@
       </c>
       <c r="N12" s="106">
         <f>SUM(N7:N11)</f>
-        <v>803.53705867990766</v>
+        <v>941.41705867990765</v>
       </c>
       <c r="O12" s="2"/>
     </row>
@@ -5144,10 +5223,10 @@
     <tabColor rgb="FFFF66CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5212,7 +5291,7 @@
       </c>
       <c r="N2" s="105">
         <f>FR_A0001_p+FR_A0001_m+FR_A0001_f+FR_A0001_t+FR_A0001_pa</f>
-        <v>803.53705867990766</v>
+        <v>941.41705867990754</v>
       </c>
       <c r="O2" s="69"/>
     </row>
@@ -5288,7 +5367,7 @@
       </c>
       <c r="N5" s="81">
         <f>N2*N3</f>
-        <v>803.53705867990766</v>
+        <v>941.41705867990754</v>
       </c>
       <c r="O5" s="69"/>
     </row>
@@ -5445,7 +5524,7 @@
       <c r="A12" s="80">
         <v>30</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="153" t="s">
         <v>146</v>
       </c>
       <c r="C12" s="81">
@@ -5472,13 +5551,13 @@
       <c r="O12" s="72"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="80">
+      <c r="A13" s="151">
         <v>40</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="154" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="152">
         <f>'FR 01004'!N2</f>
         <v>3.9191256335617903</v>
       </c>
@@ -5703,7 +5782,7 @@
       </c>
       <c r="C21" s="80"/>
       <c r="D21" s="81">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="80" t="s">
         <v>34</v>
@@ -5715,7 +5794,7 @@
       <c r="H21" s="85"/>
       <c r="I21" s="81">
         <f>IF(H21="",D21*F21,D21*F21*H21)</f>
-        <v>377.34000000000003</v>
+        <v>496.5</v>
       </c>
       <c r="J21" s="63"/>
       <c r="K21" s="63"/>
@@ -5735,7 +5814,7 @@
         <v>151</v>
       </c>
       <c r="D22" s="81">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="86" t="s">
         <v>34</v>
@@ -5747,7 +5826,7 @@
       <c r="H22" s="80"/>
       <c r="I22" s="81">
         <f>IF(H22="",D22*F22,D22*F22*H22)</f>
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="J22" s="63"/>
       <c r="K22" s="63"/>
@@ -5757,27 +5836,27 @@
       <c r="O22" s="76"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A23" s="80">
+      <c r="A23" s="155">
         <v>30</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="156" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="81">
+      <c r="D23" s="157">
         <v>5.25</v>
       </c>
-      <c r="E23" s="80" t="s">
+      <c r="E23" s="155" t="s">
         <v>193</v>
       </c>
-      <c r="F23" s="85">
+      <c r="F23" s="158">
         <v>3.07</v>
       </c>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="81">
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="157">
         <f>IF(H23="",D23*F23,D23*F23*H23)</f>
         <v>16.1175</v>
       </c>
@@ -5789,134 +5868,134 @@
       <c r="O23" s="69"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A24" s="75"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="110">
-        <f>SUM(I21:I23)</f>
-        <v>401.05750000000006</v>
+      <c r="A24" s="159">
+        <v>40</v>
+      </c>
+      <c r="B24" s="160" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="159"/>
+      <c r="D24" s="161">
+        <v>0.75</v>
+      </c>
+      <c r="E24" s="159" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="162">
+        <v>16</v>
+      </c>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="81">
+        <f>IF(H24="",D24*F24,D24*F24*H24)</f>
+        <v>12</v>
       </c>
       <c r="J24" s="63"/>
       <c r="K24" s="63"/>
       <c r="L24" s="63"/>
       <c r="M24" s="63"/>
       <c r="N24" s="63"/>
-      <c r="O24" s="76"/>
-    </row>
-    <row r="25" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="70"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
+      <c r="O24" s="69"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A25" s="159">
+        <v>50</v>
+      </c>
+      <c r="B25" s="160" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="159"/>
+      <c r="D25" s="161">
+        <v>0.25</v>
+      </c>
+      <c r="E25" s="159" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="162">
+        <v>16</v>
+      </c>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="81">
+        <f>IF(H25="",D25*F25,D25*F25*H25)</f>
+        <v>4</v>
+      </c>
       <c r="J25" s="63"/>
       <c r="K25" s="63"/>
       <c r="L25" s="63"/>
       <c r="M25" s="63"/>
       <c r="N25" s="63"/>
-      <c r="O25" s="73"/>
-    </row>
-    <row r="26" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="108" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="108" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="108" t="s">
+      <c r="O25" s="69"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" s="75"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="112" t="s">
         <v>18</v>
       </c>
+      <c r="I26" s="113">
+        <f>SUM(I21:I25)</f>
+        <v>538.61749999999995</v>
+      </c>
+      <c r="J26" s="63"/>
       <c r="K26" s="63"/>
       <c r="L26" s="63"/>
       <c r="M26" s="63"/>
       <c r="N26" s="63"/>
-      <c r="O26" s="69"/>
+      <c r="O26" s="76"/>
     </row>
     <row r="27" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="80">
-        <v>10</v>
-      </c>
-      <c r="B27" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="D27" s="87">
-        <v>0.17</v>
-      </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="89">
-        <v>16</v>
-      </c>
-      <c r="J27" s="81">
-        <f>I27*D27</f>
-        <v>2.72</v>
-      </c>
+      <c r="A27" s="70"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
       <c r="K27" s="63"/>
       <c r="L27" s="63"/>
       <c r="M27" s="63"/>
       <c r="N27" s="63"/>
-      <c r="O27" s="69"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A28" s="80">
+      <c r="O27" s="73"/>
+    </row>
+    <row r="28" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="D28" s="87">
-        <v>0.01</v>
-      </c>
-      <c r="E28" s="80"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="89">
-        <v>16</v>
-      </c>
-      <c r="J28" s="81">
-        <f>I28*D28</f>
-        <v>0.16</v>
+      <c r="D28" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="108" t="s">
+        <v>18</v>
       </c>
       <c r="K28" s="63"/>
       <c r="L28" s="63"/>
@@ -5924,146 +6003,146 @@
       <c r="N28" s="63"/>
       <c r="O28" s="69"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A29" s="75"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="110">
-        <f>SUM(J27:J28)</f>
-        <v>2.8800000000000003</v>
+    <row r="29" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="80">
+        <v>10</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="87">
+        <v>0.16</v>
+      </c>
+      <c r="E29" s="88">
+        <v>8</v>
+      </c>
+      <c r="F29" s="88" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="88">
+        <v>40</v>
+      </c>
+      <c r="H29" s="88" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="89">
+        <v>16</v>
+      </c>
+      <c r="J29" s="81">
+        <f>I29*D29</f>
+        <v>2.56</v>
       </c>
       <c r="K29" s="63"/>
       <c r="L29" s="63"/>
       <c r="M29" s="63"/>
       <c r="N29" s="63"/>
-      <c r="O29" s="73"/>
+      <c r="O29" s="69"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A30" s="70"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
+      <c r="A30" s="80">
+        <v>20</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="87">
+        <v>0.04</v>
+      </c>
+      <c r="E30" s="88">
+        <v>8</v>
+      </c>
+      <c r="F30" s="90" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="89">
+        <v>16</v>
+      </c>
+      <c r="J30" s="81">
+        <f>I30*D30</f>
+        <v>0.64</v>
+      </c>
       <c r="K30" s="63"/>
       <c r="L30" s="63"/>
       <c r="M30" s="63"/>
       <c r="N30" s="63"/>
       <c r="O30" s="69"/>
     </row>
-    <row r="31" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="108" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="108" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="108" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="108" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" s="108" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A31" s="75"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="27"/>
+      <c r="J31" s="110">
+        <f>SUM(J29:J30)</f>
+        <v>3.2</v>
+      </c>
       <c r="K31" s="63"/>
       <c r="L31" s="63"/>
       <c r="M31" s="63"/>
       <c r="N31" s="63"/>
-      <c r="O31" s="69"/>
+      <c r="O31" s="73"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A32" s="80">
-        <v>10</v>
-      </c>
-      <c r="B32" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="80" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="81">
-        <v>500</v>
-      </c>
-      <c r="E32" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="80">
-        <v>204</v>
-      </c>
-      <c r="G32" s="80">
-        <v>3000</v>
-      </c>
-      <c r="H32" s="80">
-        <v>1</v>
-      </c>
-      <c r="I32" s="81">
-        <f>D32*F32/G32*H32</f>
-        <v>34</v>
-      </c>
-      <c r="J32" s="27"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
       <c r="K32" s="63"/>
       <c r="L32" s="63"/>
       <c r="M32" s="63"/>
       <c r="N32" s="63"/>
       <c r="O32" s="69"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A33" s="85">
+    <row r="33" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="81">
-        <v>500</v>
-      </c>
-      <c r="E33" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="85">
-        <v>20</v>
-      </c>
-      <c r="G33" s="85">
-        <v>300</v>
-      </c>
-      <c r="H33" s="85">
-        <v>1</v>
-      </c>
-      <c r="I33" s="81">
-        <f>D33*F33/G33*H33</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="J33" s="64"/>
+      <c r="D33" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="27"/>
       <c r="K33" s="63"/>
       <c r="L33" s="63"/>
       <c r="M33" s="63"/>
@@ -6071,19 +6150,33 @@
       <c r="O33" s="69"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A34" s="75"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="113">
-        <f>SUM(I32:I33)</f>
-        <v>67.333333333333343</v>
+      <c r="A34" s="80">
+        <v>10</v>
+      </c>
+      <c r="B34" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="81">
+        <v>500</v>
+      </c>
+      <c r="E34" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="80">
+        <v>204</v>
+      </c>
+      <c r="G34" s="80">
+        <v>3000</v>
+      </c>
+      <c r="H34" s="80">
+        <v>1</v>
+      </c>
+      <c r="I34" s="81">
+        <f>D34*F34/G34*H34</f>
+        <v>34</v>
       </c>
       <c r="J34" s="27"/>
       <c r="K34" s="63"/>
@@ -6092,38 +6185,96 @@
       <c r="N34" s="63"/>
       <c r="O34" s="69"/>
     </row>
-    <row r="35" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="77"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="79"/>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A35" s="85">
+        <v>20</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="81">
+        <v>500</v>
+      </c>
+      <c r="E35" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="85">
+        <v>20</v>
+      </c>
+      <c r="G35" s="85">
+        <v>300</v>
+      </c>
+      <c r="H35" s="85">
+        <v>1</v>
+      </c>
+      <c r="I35" s="81">
+        <f>D35*F35/G35*H35</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="J35" s="64"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="69"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="113">
+        <f>SUM(I34:I35)</f>
+        <v>67.333333333333343</v>
+      </c>
+      <c r="J36" s="27"/>
       <c r="K36" s="63"/>
       <c r="L36" s="63"/>
       <c r="M36" s="63"/>
       <c r="N36" s="63"/>
+      <c r="O36" s="69"/>
+    </row>
+    <row r="37" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="77"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="79"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6140,7 +6291,7 @@
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="39" max="16383" man="1"/>
+    <brk id="41" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -6153,7 +6304,7 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -6808,7 +6959,7 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
